--- a/stats/austroplaca/month_Y_stats_X3.xlsx
+++ b/stats/austroplaca/month_Y_stats_X3.xlsx
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.278846153846154</v>
+        <v>0.0550744047619051</v>
       </c>
       <c r="D13" t="n">
         <v>0.397</v>

--- a/stats/austroplaca/month_Y_stats_X3.xlsx
+++ b/stats/austroplaca/month_Y_stats_X3.xlsx
@@ -445,7 +445,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
         <v>11</v>
@@ -462,16 +462,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" t="n">
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.208763440860215</v>
+        <v>0.190827956989248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.458</v>
+        <v>0.471</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238112903225806</v>
+        <v>0.22780376344086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.471</v>
+        <v>0.454</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0238303571428571</v>
+        <v>0.0550744047619051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207</v>
+        <v>0.397</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B10" t="n">
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0033129359125</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.169230769</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -530,16 +530,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0.190827956989248</v>
+        <v>0.229241229139785</v>
       </c>
       <c r="D11" t="n">
-        <v>0.471</v>
+        <v>0.458</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22780376344086</v>
+        <v>0.238112903225806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.454</v>
+        <v>0.471</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0550744047619051</v>
+        <v>0.0238303571428571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397</v>
+        <v>0.207</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267311827956989</v>
+        <v>0.157638440860215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0476653225806452</v>
+        <v>0.119631720430108</v>
       </c>
       <c r="D16" t="n">
-        <v>0.647</v>
+        <v>0.714</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>

--- a/stats/austroplaca/month_Y_stats_X3.xlsx
+++ b/stats/austroplaca/month_Y_stats_X3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Y</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.00853036609572474</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.0464544794571031</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.103670497317918</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.0852520525247769</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.175508950274643</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.156580542054294</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.116960336174683</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.0185841285177258</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.105162378480623</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.0978254310552359</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.0471294735149011</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -595,6 +637,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.0159026501014877</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -612,6 +657,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.204078309925927</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +677,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.219477830982072</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -644,6 +695,9 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
